--- a/keywords/ads_topwords.xlsx
+++ b/keywords/ads_topwords.xlsx
@@ -20,21 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">add</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">stop</t>
   </si>
   <si>
     <t xml:space="preserve">ad</t>
   </si>
   <si>
-    <t xml:space="preserve">advertise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advertisment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial</t>
+    <t xml:space="preserve">stop playing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoy</t>
   </si>
 </sst>
 </file>
@@ -125,17 +122,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,15 +148,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7975708502024"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -176,7 +170,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>752.151462994837</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -188,27 +182,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>90</v>
+        <v>30.9810671256454</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>80</v>
+        <v>13.7693631669535</v>
       </c>
     </row>
   </sheetData>
